--- a/Artefakte/Problemszenario/WS2020_CobanMai_Problemszenarien.xlsx
+++ b/Artefakte/Problemszenario/WS2020_CobanMai_Problemszenarien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deryacoban/Documents/GitHub/EPWS2020CobanMai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00022B32-7A27-F04C-A4E1-884972879704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96BD97D-C61D-5F40-AE93-D2C3AD97374E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16320" xr2:uid="{95718E13-DA27-5C46-AE47-0D7073F5CC92}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="28240" windowHeight="16240" xr2:uid="{95718E13-DA27-5C46-AE47-0D7073F5CC92}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Problemszenario Name</t>
   </si>
   <si>
     <t>Textuelle Beschreibung</t>
+  </si>
+  <si>
+    <t>ältere Generation</t>
+  </si>
+  <si>
+    <t>jüngere Generation</t>
+  </si>
+  <si>
+    <t>vergisst die eigene Kultur und Tradition</t>
+  </si>
+  <si>
+    <t>wird von der jüngeren Generetaion weniger wertgeschätzt</t>
+  </si>
+  <si>
+    <t>kulturelle Identität fehlt</t>
+  </si>
+  <si>
+    <t>übergewicht wegen fast-food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fehlende Sozialisierung   </t>
+  </si>
+  <si>
+    <t>Benutzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Globalisierung hatnegative Auswirkungen auf Kultur und 
+Gesellschaft-&gt; Identität und Einzigartigkeit gehen verloren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kann nicht immer auf dem aktuellen Stand sein, weil das Medium kompliziert zu nutzen ist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rezepte müssen immer handgeschrieben werden und können dadurch schneller verlieren gehen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">können Rezepte nicht an alle weitergeben, weil sie nicht 
+besucht werden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">keine Erinnerung(zum Festhalten) an Verstorbene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">keine Bindung zur Familie </t>
   </si>
 </sst>
 </file>
@@ -80,9 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -414,7 +461,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,17 +477,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="13" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
